--- a/user-data/percent-in-p20-national/percent-in-p20-national.xlsx
+++ b/user-data/percent-in-p20-national/percent-in-p20-national.xlsx
@@ -1120,13 +1120,13 @@
     <t xml:space="preserve">Name: percent-in-p20-national</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: The percentage of population of each country who are in the global poorest 20%</t>
+    <t xml:space="preserve">Description: The percentage of population of each country who are in the global poorest 20%. 2013 represents the most recent year data is available</t>
   </si>
   <si>
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 58</t>
+    <t xml:space="preserve">Source: 59</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/percent-in-p20-national/percent-in-p20-national.xlsx
+++ b/user-data/percent-in-p20-national/percent-in-p20-national.xlsx
@@ -1126,7 +1126,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 59</t>
+    <t xml:space="preserve">Source: 60</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/percent-in-p20-national/percent-in-p20-national.xlsx
+++ b/user-data/percent-in-p20-national/percent-in-p20-national.xlsx
@@ -1120,13 +1120,13 @@
     <t xml:space="preserve">Name: percent-in-p20-national</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: The percentage of population of each country who are in the global poorest 20%</t>
+    <t xml:space="preserve">Description: The percentage of population of each country who are in the global poorest 20%. 2013 represents the most recent year data is available</t>
   </si>
   <si>
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 58</t>
+    <t xml:space="preserve">Source: 60</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>
